--- a/ComputedResults/Area/ThreeCornerVowels/Danish/MFCC/3_bordervowels_mfcc_da_IDS.xlsx
+++ b/ComputedResults/Area/ThreeCornerVowels/Danish/MFCC/3_bordervowels_mfcc_da_IDS.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2308.830603077939</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1252.780490577933</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1564.611886496038</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2697.640955886995</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2439.660270557379</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>858.6803152359743</v>
+        <v>859</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1784.687810125895</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="9">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4063.797816847773</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2800.857405808628</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1072.34973423027</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2202.367148046771</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2297.421163600228</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1871.561839225015</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2609.460211282557</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2424.087156060353</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2367.464846247297</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6914.660110604396</v>
+        <v>6915</v>
       </c>
     </row>
     <row r="19">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3222.845347604414</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2871.045399290518</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="21">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1190.057330894355</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3366.13208076724</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="23">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3459.967234079667</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="24">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4620.697459361166</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="25">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3850.278332180919</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="26">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1394.394143036504</v>
+        <v>1394</v>
       </c>
     </row>
   </sheetData>
